--- a/data/annotations/indicators_and_annotations-v5.xlsx
+++ b/data/annotations/indicators_and_annotations-v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://birkbeckuol-my.sharepoint.com/personal/a_poulovassilis_bbk_ac_uk/Documents/TO_DO_MIP_work_with_AB_PTW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreab/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A8FE5D-D289-4DB1-8235-D6C6703F214E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890382E8-537A-E842-BBD7-D68E199C9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="460" windowWidth="19180" windowHeight="9770" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
+    <workbookView xWindow="3920" yWindow="1280" windowWidth="25580" windowHeight="16140" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="597">
   <si>
     <t>indicator_code</t>
   </si>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>crowdfunding project for which we are aiming to raise pandemic survival </t>
-  </si>
-  <si>
-    <t xml:space="preserve">donate her to help us re-open </t>
   </si>
   <si>
     <t>in less than two months you have helped us to reach our target and raised over to support the work of   </t>
@@ -1579,9 +1576,6 @@
     <t>updates about reopening</t>
   </si>
   <si>
-    <t xml:space="preserve"> HM Treasury</t>
-  </si>
-  <si>
     <t xml:space="preserve">grant funders Historic England </t>
   </si>
   <si>
@@ -1835,6 +1829,12 @@
   </si>
   <si>
     <t>Reopening activity</t>
+  </si>
+  <si>
+    <t>possible_supercategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donate here to help us re-open </t>
   </si>
 </sst>
 </file>
@@ -2340,14 +2340,14 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>42</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>42</v>
       </c>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>42</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>47</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>49</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>51</v>
       </c>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>52</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>54</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>56</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>56</v>
       </c>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>58</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>58</v>
       </c>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>62</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>64</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>66</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>66</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>75</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>77</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>77</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>79</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>79</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>79</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>82</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>86</v>
       </c>
@@ -2959,14 +2959,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41342B3E-BD7C-48C6-BFD3-6EEAFC746026}">
-  <dimension ref="A1:H285"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.1640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -2974,7 +2974,7 @@
     <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>595</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2990,7 +2990,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
@@ -2998,18 +2998,18 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>92</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>93</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>94</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>95</v>
       </c>
@@ -3041,15 +3041,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>97</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>98</v>
       </c>
@@ -3065,15 +3065,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>99</v>
       </c>
@@ -3081,15 +3081,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>101</v>
       </c>
@@ -3097,31 +3097,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
@@ -3129,15 +3129,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>104</v>
       </c>
@@ -3145,15 +3145,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>105</v>
       </c>
@@ -3161,55 +3161,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>110</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>111</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>112</v>
       </c>
@@ -3233,15 +3233,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>114</v>
       </c>
@@ -3249,15 +3249,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>116</v>
       </c>
@@ -3265,23 +3265,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>118</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>119</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>120</v>
       </c>
@@ -3305,10 +3305,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>121</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>122</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>123</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>125</v>
       </c>
@@ -3340,15 +3340,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>128</v>
       </c>
@@ -3356,10 +3356,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>129</v>
       </c>
@@ -3367,23 +3367,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>132</v>
       </c>
@@ -3391,18 +3391,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>133</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>134</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>135</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>136</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>137</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>138</v>
       </c>
@@ -3450,10 +3450,10 @@
         <v>38</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>139</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>140</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>141</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>142</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>143</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>144</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
         <v>145</v>
       </c>
@@ -3509,18 +3509,18 @@
         <v>16</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>146</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
         <v>147</v>
       </c>
@@ -3536,15 +3536,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
         <v>148</v>
       </c>
@@ -3552,528 +3552,528 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="21" t="s">
+      <c r="B71" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A72" s="21" t="s">
+      <c r="B73" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="21" t="s">
+      <c r="B74" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="21" t="s">
+      <c r="B75" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A76" s="21" t="s">
+      <c r="B81" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A87" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A88" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A91" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A95" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A96" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A101" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="19" t="s">
+      <c r="B111" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A104" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A106" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="13" t="s">
-        <v>503</v>
-      </c>
       <c r="B115" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>511</v>
+        <v>181</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
-        <v>182</v>
+        <v>510</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
-        <v>512</v>
+        <v>182</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="19" t="s">
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A124" s="20" t="s">
-        <v>184</v>
+    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="19" t="s">
+        <v>511</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A125" s="19" t="s">
-        <v>513</v>
+    <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="13" t="s">
+        <v>512</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>515</v>
+        <v>184</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A128" s="13" t="s">
+    <row r="128" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="21" t="s">
         <v>185</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>186</v>
+        <v>514</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="21" t="s">
-        <v>517</v>
+    <row r="131" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="13" t="s">
+    <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A133" s="22" t="s">
-        <v>518</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="22" t="s">
         <v>188</v>
       </c>
@@ -4081,15 +4081,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="22" t="s">
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="21" t="s">
         <v>189</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="21" t="s">
         <v>190</v>
       </c>
@@ -4097,55 +4097,55 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="21" t="s">
-        <v>191</v>
+        <v>517</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="21" t="s">
-        <v>520</v>
+    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="22" t="s">
+        <v>519</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
-        <v>522</v>
+        <v>191</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="22" t="s">
+    <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="21" t="s">
         <v>192</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="21" t="s">
         <v>193</v>
       </c>
@@ -4153,39 +4153,39 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="21" t="s">
-        <v>194</v>
+        <v>521</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="21" t="s">
-        <v>523</v>
+    <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="22" t="s">
+        <v>522</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A146" s="22" t="s">
-        <v>524</v>
+    <row r="146" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="21" t="s">
+        <v>523</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="s">
-        <v>525</v>
+        <v>195</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="s">
         <v>196</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="s">
         <v>197</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="21" t="s">
         <v>198</v>
       </c>
@@ -4209,47 +4209,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="21" t="s">
+    <row r="151" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A151" s="22" t="s">
         <v>199</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A152" s="22" t="s">
+    <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="21" t="s">
         <v>200</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="21" t="s">
-        <v>201</v>
+        <v>528</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="21" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="21" t="s">
-        <v>546</v>
+        <v>203</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="21" t="s">
         <v>204</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="21" t="s">
         <v>205</v>
       </c>
@@ -4265,23 +4265,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="21" t="s">
+    <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="19" t="s">
         <v>206</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="19" t="s">
+    <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="13" t="s">
         <v>207</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>208</v>
       </c>
@@ -4289,47 +4289,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="13" t="s">
+    <row r="161" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A161" s="19" t="s">
         <v>209</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A162" s="19" t="s">
-        <v>210</v>
+    <row r="162" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A162" s="13" t="s">
+        <v>529</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A163" s="13" t="s">
-        <v>531</v>
+    <row r="163" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A163" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="19" t="s">
-        <v>532</v>
+    <row r="164" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A164" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>213</v>
       </c>
@@ -4337,69 +4337,69 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="13" t="s">
-        <v>214</v>
+    <row r="167" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A167" s="19" t="s">
+        <v>531</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A168" s="19" t="s">
-        <v>533</v>
+    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="13" t="s">
+        <v>532</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="13" t="s">
-        <v>535</v>
+    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="19" t="s">
+    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="21" t="s">
         <v>217</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="s">
         <v>218</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="21" t="s">
         <v>219</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" s="21" t="s">
         <v>220</v>
       </c>
@@ -4415,31 +4415,31 @@
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="21" t="s">
-        <v>221</v>
+        <v>586</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" s="21" t="s">
-        <v>588</v>
+        <v>221</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A178" s="21" t="s">
+    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="13" t="s">
         <v>222</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>223</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>224</v>
       </c>
@@ -4455,133 +4455,133 @@
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="13" t="s">
+    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="19" t="s">
         <v>225</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="19" t="s">
-        <v>226</v>
+    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="13" t="s">
+        <v>534</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>536</v>
+        <v>226</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A184" s="13" t="s">
+    <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="21" t="s">
         <v>227</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="21" t="s">
         <v>228</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="21" t="s">
-        <v>229</v>
+        <v>585</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="21" t="s">
-        <v>586</v>
+        <v>230</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="21" t="s">
-        <v>231</v>
+        <v>588</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="21" t="s">
-        <v>590</v>
+        <v>231</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="21" t="s">
+    <row r="191" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A191" s="13" t="s">
         <v>232</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>233</v>
+        <v>583</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="13" t="s">
-        <v>585</v>
+    <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="22" t="s">
         <v>234</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="22" t="s">
+    </row>
+    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="21" t="s">
         <v>235</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
         <v>236</v>
       </c>
@@ -4589,147 +4589,147 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="21" t="s">
-        <v>237</v>
+        <v>535</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A198" s="21" t="s">
-        <v>537</v>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="16" t="s">
-        <v>238</v>
+    <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="13" t="s">
+        <v>581</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="13" t="s">
-        <v>583</v>
+    <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200" s="21" t="s">
+        <v>582</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>584</v>
+        <v>239</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="13" t="s">
-        <v>241</v>
+    </row>
+    <row r="203" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A203" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A204" s="19" t="s">
+    <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C206" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="15" t="s">
+    </row>
+    <row r="207" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A207" s="19" t="s">
         <v>246</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="19" t="s">
-        <v>247</v>
+    <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="15" t="s">
+        <v>580</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>582</v>
+        <v>67</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="s">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="15" t="s">
-        <v>248</v>
+    <row r="211" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A211" s="13" t="s">
+        <v>536</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>538</v>
+        <v>249</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>250</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>251</v>
       </c>
@@ -4745,85 +4745,85 @@
         <v>66</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="13" t="s">
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215" s="15" t="s">
         <v>252</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
-        <v>253</v>
+        <v>579</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="15" t="s">
-        <v>581</v>
+    </row>
+    <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A217" s="13" t="s">
+        <v>578</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="13" t="s">
-        <v>580</v>
+    <row r="218" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218" s="15" t="s">
+        <v>577</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
-        <v>539</v>
+        <v>257</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>258</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
         <v>259</v>
       </c>
@@ -4839,191 +4839,191 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>262</v>
+        <v>509</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="15" t="s">
-        <v>589</v>
+        <v>265</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>266</v>
+        <v>564</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A233" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="15" t="s">
+      <c r="B233" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A235" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="15" t="s">
+      <c r="B235" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A236" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A237" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="15" t="s">
+      <c r="B238" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A239" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A240" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A241" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A242" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A243" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A244" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A245" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A246" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A247" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="13" t="s">
-        <v>278</v>
-      </c>
       <c r="B247" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>571</v>
+        <v>279</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>280</v>
       </c>
@@ -5031,47 +5031,47 @@
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>281</v>
+        <v>570</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>559</v>
+        <v>284</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>285</v>
       </c>
@@ -5079,227 +5079,227 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
-        <v>286</v>
+        <v>540</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A258" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A259" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="13" t="s">
-        <v>543</v>
-      </c>
       <c r="B259" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" s="13" t="s">
-        <v>544</v>
+    <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A260" s="15" t="s">
+        <v>571</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="15" t="s">
-        <v>573</v>
+        <v>290</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" s="15" t="s">
-        <v>291</v>
+    </row>
+    <row r="262" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A262" s="13" t="s">
+        <v>572</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A264" s="13" t="s">
-        <v>558</v>
+    <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A264" s="19" t="s">
+        <v>543</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A265" s="19" t="s">
-        <v>545</v>
+        <v>79</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A265" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="15" t="s">
-        <v>292</v>
+        <v>555</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="15" t="s">
-        <v>557</v>
+        <v>293</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" s="15" t="s">
-        <v>294</v>
+    <row r="268" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A268" s="19" t="s">
+        <v>554</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A269" s="19" t="s">
-        <v>556</v>
+    <row r="269" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A269" s="13" t="s">
+        <v>553</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A272" s="13" t="s">
-        <v>553</v>
+    <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A272" s="22" t="s">
+        <v>296</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="22" t="s">
-        <v>297</v>
+        <v>84</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A273" s="15" t="s">
+        <v>550</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="15" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C274" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="15" t="s">
-        <v>551</v>
+    </row>
+    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A275" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
-        <v>550</v>
+        <v>297</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
-        <v>298</v>
+        <v>547</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
-        <v>549</v>
+        <v>299</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
-        <v>300</v>
+        <v>546</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
-        <v>547</v>
+        <v>301</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>302</v>
       </c>
@@ -5307,31 +5307,23 @@
         <v>86</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
-        <v>303</v>
+        <v>574</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="B285" s="23" t="s">
+    <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A284" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B284" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>595</v>
+      <c r="C284" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -5340,7 +5332,7 @@
       <sortCondition ref="B1:B72"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B286:B1048576 B1:B23 B264:B284 B25:B262">
+  <conditionalFormatting sqref="B285:B1048576 B1:B23 B263:B283 B25:B261">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -5358,7 +5350,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B263">
+  <conditionalFormatting sqref="B262">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -5381,7 +5373,7 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.83203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -5390,7 +5382,7 @@
     <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
@@ -5398,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>89</v>
@@ -5409,16 +5401,16 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>91</v>
       </c>
@@ -5426,7 +5418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>92</v>
       </c>
@@ -5435,43 +5427,43 @@
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>96</v>
       </c>
@@ -5480,52 +5472,52 @@
       </c>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>100</v>
       </c>
@@ -5534,25 +5526,25 @@
       </c>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>120</v>
       </c>
@@ -5561,7 +5553,7 @@
       </c>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>128</v>
       </c>
@@ -5570,7 +5562,7 @@
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>129</v>
       </c>
@@ -5579,56 +5571,56 @@
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>325</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -5637,27 +5629,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
-        <v>328</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>145</v>
       </c>
@@ -5668,40 +5660,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+      <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="14" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+      <c r="B32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="14" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
@@ -5710,48 +5702,48 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="5" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="B35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+      <c r="B36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
-        <v>340</v>
-      </c>
       <c r="B37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>16</v>
@@ -5760,18 +5752,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
-        <v>342</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>16</v>
@@ -5780,56 +5772,56 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
+      <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
+      <c r="B43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
+      <c r="B44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="14"/>
-    </row>
-    <row r="45" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
+      <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
-        <v>348</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>16</v>
@@ -5838,9 +5830,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>16</v>
@@ -5849,71 +5841,71 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="14"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>42</v>
@@ -5922,18 +5914,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" ht="124" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>42</v>
@@ -5942,9 +5934,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>42</v>
@@ -5953,9 +5945,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>42</v>
@@ -5964,9 +5956,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>42</v>
@@ -5975,9 +5967,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>42</v>
@@ -5986,9 +5978,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>42</v>
@@ -5997,9 +5989,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>42</v>
@@ -6008,9 +6000,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>42</v>
@@ -6019,9 +6011,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>42</v>
@@ -6030,9 +6022,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>42</v>
@@ -6041,9 +6033,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>42</v>
@@ -6052,9 +6044,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>42</v>
@@ -6063,9 +6055,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>42</v>
@@ -6074,9 +6066,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>42</v>
@@ -6085,9 +6077,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>42</v>
@@ -6096,9 +6088,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>42</v>
@@ -6107,18 +6099,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="14"/>
     </row>
-    <row r="74" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>54</v>
@@ -6127,9 +6119,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>54</v>
@@ -6138,52 +6130,52 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="14"/>
     </row>
-    <row r="77" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="14"/>
     </row>
-    <row r="79" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C80" s="14"/>
     </row>
-    <row r="81" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>56</v>
@@ -6192,45 +6184,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>56</v>
@@ -6239,27 +6231,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>56</v>
@@ -6268,18 +6260,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C90" s="14"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>58</v>
@@ -6288,16 +6280,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C92" s="14"/>
     </row>
-    <row r="93" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>58</v>
@@ -6306,9 +6298,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>58</v>
@@ -6317,54 +6309,54 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C96" s="14"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C97" s="14"/>
     </row>
-    <row r="98" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C98" s="14"/>
     </row>
-    <row r="99" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C99" s="14"/>
     </row>
-    <row r="100" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>66</v>
@@ -6373,16 +6365,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>67</v>
       </c>
@@ -6391,27 +6383,27 @@
       </c>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>69</v>
@@ -6420,9 +6412,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>69</v>
@@ -6431,9 +6423,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>73</v>
@@ -6442,9 +6434,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>73</v>
@@ -6453,9 +6445,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>73</v>
@@ -6464,9 +6456,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>73</v>
@@ -6475,45 +6467,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C112" s="5"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="15" t="s">
+      <c r="B113" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="15" t="s">
+      <c r="B114" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>73</v>
@@ -6522,18 +6514,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>73</v>
@@ -6542,18 +6534,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>73</v>
@@ -6562,18 +6554,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>73</v>
@@ -6582,9 +6574,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>73</v>
@@ -6593,9 +6585,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>73</v>
@@ -6604,9 +6596,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>73</v>
@@ -6615,9 +6607,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>73</v>
@@ -6626,27 +6618,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C126" s="5"/>
-    </row>
-    <row r="127" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A127" s="15" t="s">
-        <v>271</v>
-      </c>
       <c r="B127" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C127" s="14"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>73</v>
@@ -6655,18 +6647,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>73</v>
@@ -6675,9 +6667,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>75</v>
@@ -6686,9 +6678,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>75</v>
@@ -6697,9 +6689,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>79</v>
@@ -6708,18 +6700,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C134" s="14"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>79</v>
@@ -6728,9 +6720,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>79</v>
@@ -6739,42 +6731,42 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C137" s="14"/>
     </row>
-    <row r="138" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C138" s="14"/>
     </row>
-    <row r="139" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C139" s="14"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>102</v>
       </c>
@@ -6782,95 +6774,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A143" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A143" s="13" t="s">
+      <c r="B143" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="13" t="s">
+      <c r="B144" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A145" s="13" t="s">
-        <v>410</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>104</v>
       </c>
@@ -6878,57 +6870,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>31</v>
@@ -6937,17 +6929,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A162" s="13" t="s">
         <v>418</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="13" t="s">
-        <v>419</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>42</v>
@@ -6956,15 +6948,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>105</v>
       </c>
@@ -6972,7 +6964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>106</v>
       </c>
@@ -6980,41 +6972,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>31</v>
@@ -7023,9 +7015,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>42</v>
@@ -7034,55 +7026,55 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A177" s="13" t="s">
         <v>425</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="13" t="s">
-        <v>426</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>123</v>
       </c>
@@ -7090,9 +7082,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>42</v>
@@ -7101,15 +7093,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>107</v>
       </c>
@@ -7117,17 +7109,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>16</v>
@@ -7136,15 +7128,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
         <v>108</v>
       </c>
@@ -7152,17 +7144,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A187" s="13" t="s">
         <v>430</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="13" t="s">
-        <v>431</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>31</v>
@@ -7171,7 +7163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>109</v>
       </c>
@@ -7179,7 +7171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>124</v>
       </c>
@@ -7187,23 +7179,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>110</v>
       </c>
@@ -7211,17 +7203,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>42</v>
@@ -7230,12 +7222,12 @@
         <v>46</v>
       </c>
       <c r="D194" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A195" s="13" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A195" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>42</v>
@@ -7244,7 +7236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>112</v>
       </c>
@@ -7252,9 +7244,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>42</v>
@@ -7263,17 +7255,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>16</v>
@@ -7282,25 +7274,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="B201" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>79</v>
@@ -7309,9 +7301,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>79</v>
@@ -7320,17 +7312,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>79</v>
@@ -7339,7 +7331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>113</v>
       </c>
@@ -7347,31 +7339,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>114</v>
       </c>
@@ -7379,31 +7371,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>115</v>
       </c>
@@ -7411,15 +7403,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>125</v>
       </c>
@@ -7427,15 +7419,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>116</v>
       </c>
@@ -7443,9 +7435,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>42</v>
@@ -7454,9 +7446,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>16</v>
@@ -7465,25 +7457,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>16</v>
@@ -7492,25 +7484,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>42</v>
@@ -7519,26 +7511,26 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>117</v>
       </c>
@@ -7546,9 +7538,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>75</v>
@@ -7557,82 +7549,82 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A233" s="13" t="s">
         <v>447</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="13" t="s">
-        <v>448</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C234" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A235" s="13" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A235" s="13" t="s">
-        <v>451</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>130</v>
       </c>
@@ -7640,7 +7632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>131</v>
       </c>
@@ -7648,7 +7640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>132</v>
       </c>
@@ -7656,95 +7648,95 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A246" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A247" s="13" t="s">
         <v>454</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="13" t="s">
-        <v>455</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
         <v>126</v>
       </c>
@@ -7783,67 +7775,67 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="3" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" t="s">
         <v>464</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>465</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>467</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>468</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>469</v>
-      </c>
-      <c r="B5" t="s">
-        <v>470</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -7865,14 +7857,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>300</v>
       </c>
@@ -7884,7 +7876,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -7892,7 +7884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A1*A2</f>
         <v>1500</v>
@@ -7912,6 +7904,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C2CD1DD118472458A0E6161F2144773" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6e70606a31341017029f9eff1eb720b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0afe7543-80e5-4676-a63d-5a4feeb00470" xmlns:ns3="0accda53-abec-4882-afe9-cc0ba02332f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b75b586682df3983c7d47b6a8e259e8b" ns2:_="" ns3:_="">
     <xsd:import namespace="0afe7543-80e5-4676-a63d-5a4feeb00470"/>
@@ -8122,22 +8129,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C858A0-B59C-47E8-A200-4A6AAC57C6A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8154,21 +8163,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/annotations/indicators_and_annotations-v5.xlsx
+++ b/data/annotations/indicators_and_annotations-v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreab/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890382E8-537A-E842-BBD7-D68E199C9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D759F56-EAC4-5F49-90B7-778C2FABDD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="1280" windowWidth="25580" windowHeight="16140" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
+    <workbookView xWindow="2180" yWindow="500" windowWidth="25580" windowHeight="16140" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">annotations!$A$1:$D$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">annotations_bow!$A$1:$C$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">annotations_bow!$A$1:$D$284</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicators!$A$1:$C$60</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="603">
   <si>
     <t>indicator_code</t>
   </si>
@@ -1835,6 +1835,24 @@
   </si>
   <si>
     <t xml:space="preserve">donate here to help us re-open </t>
+  </si>
+  <si>
+    <t>critical_words</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>closed notice</t>
+  </si>
+  <si>
+    <t>closed covid</t>
+  </si>
+  <si>
+    <t>close doors</t>
+  </si>
+  <si>
+    <t>CONTINUE HERE</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1909,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1940,6 +1958,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1954,7 +1978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2017,6 +2041,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2962,16 +2989,17 @@
   <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120:XFD120"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.1640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="23.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2984,7 +3012,9 @@
       <c r="C1" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>597</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3000,6 +3030,9 @@
       <c r="C2" s="5" t="s">
         <v>589</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -3008,6 +3041,9 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
@@ -3016,6 +3052,9 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -3024,6 +3063,9 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -3032,6 +3074,9 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
@@ -3040,6 +3085,9 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
@@ -3048,6 +3096,9 @@
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
@@ -3056,6 +3107,9 @@
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D9" s="24" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
@@ -5327,11 +5381,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C72" xr:uid="{F597D623-D42C-274C-98A3-F4E31B15DD65}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C288">
-      <sortCondition ref="B1:B72"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D284" xr:uid="{41342B3E-BD7C-48C6-BFD3-6EEAFC746026}"/>
   <conditionalFormatting sqref="B285:B1048576 B1:B23 B263:B283 B25:B261">
     <cfRule type="iconSet" priority="3">
       <iconSet>
@@ -7904,21 +7954,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C2CD1DD118472458A0E6161F2144773" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6e70606a31341017029f9eff1eb720b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0afe7543-80e5-4676-a63d-5a4feeb00470" xmlns:ns3="0accda53-abec-4882-afe9-cc0ba02332f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b75b586682df3983c7d47b6a8e259e8b" ns2:_="" ns3:_="">
     <xsd:import namespace="0afe7543-80e5-4676-a63d-5a4feeb00470"/>
@@ -8129,24 +8164,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C858A0-B59C-47E8-A200-4A6AAC57C6A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8163,4 +8196,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>